--- a/grupos/2AEV - Estadisticos 20202.xlsx
+++ b/grupos/2AEV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="162">
   <si>
     <t>Materia</t>
   </si>
@@ -191,12 +191,12 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Contreras Díaz Irma Ivette</t>
+  </si>
+  <si>
     <t>González Altamirano Victorino Juventino</t>
   </si>
   <si>
-    <t>Contreras Díaz Irma Ivette</t>
-  </si>
-  <si>
     <t>Zarate Amezcua Eladio Jorge</t>
   </si>
   <si>
@@ -221,6 +221,9 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>AVENDAÑO</t>
+  </si>
+  <si>
     <t>BAEZ</t>
   </si>
   <si>
@@ -230,12 +233,21 @@
     <t>CANUTO</t>
   </si>
   <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
     <t>CHAVEZ</t>
   </si>
   <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
     <t>CUAQUEHUA</t>
   </si>
   <si>
+    <t>ESPINOZA</t>
+  </si>
+  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
@@ -248,33 +260,60 @@
     <t>MARROQUIN</t>
   </si>
   <si>
+    <t>MAYAHUA</t>
+  </si>
+  <si>
     <t>MIXCOHA</t>
   </si>
   <si>
     <t>MORALES</t>
   </si>
   <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
     <t>PAZ</t>
   </si>
   <si>
     <t>PEREZ</t>
   </si>
   <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
     <t>REYES</t>
   </si>
   <si>
     <t>ROBLES</t>
   </si>
   <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
     <t>ROSETE</t>
   </si>
   <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
     <t>SARMIENTO</t>
   </si>
   <si>
+    <t>SILVESTRE</t>
+  </si>
+  <si>
     <t>TEXCAHUA</t>
   </si>
   <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>OJEDA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>FLORES</t>
   </si>
   <si>
@@ -287,9 +326,18 @@
     <t>RAMOS</t>
   </si>
   <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
     <t>XALAMIHUA</t>
   </si>
   <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
     <t>MENDEZ</t>
   </si>
   <si>
@@ -305,18 +353,27 @@
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>TEMOXTLE</t>
+  </si>
+  <si>
     <t>EVARISTO</t>
   </si>
   <si>
     <t>BAROJAS</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>ALAMILLO</t>
   </si>
   <si>
     <t>GUEVARA</t>
   </si>
   <si>
+    <t>BELLO</t>
+  </si>
+  <si>
     <t>JOAQUIN</t>
   </si>
   <si>
@@ -326,12 +383,27 @@
     <t>SALAS</t>
   </si>
   <si>
+    <t>VELASCO</t>
+  </si>
+  <si>
     <t>URBINA</t>
   </si>
   <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>YAEL</t>
+  </si>
+  <si>
+    <t>AXEL JESUS</t>
+  </si>
+  <si>
     <t>MARCO ANTONIO</t>
   </si>
   <si>
@@ -341,15 +413,27 @@
     <t>ISRAEL</t>
   </si>
   <si>
+    <t>KARLA JOVANA</t>
+  </si>
+  <si>
     <t>NORKYS AIRY</t>
   </si>
   <si>
+    <t>JORGE HUMBERTO</t>
+  </si>
+  <si>
     <t>JOSE DANIEL</t>
   </si>
   <si>
+    <t>ADRIAN</t>
+  </si>
+  <si>
     <t>DULIAM</t>
   </si>
   <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
     <t>CRISTIAN JAHIR</t>
   </si>
   <si>
@@ -368,6 +452,9 @@
     <t>GABRIEL JOSUE</t>
   </si>
   <si>
+    <t>ELIAS</t>
+  </si>
+  <si>
     <t>ALEJANDRO</t>
   </si>
   <si>
@@ -377,127 +464,40 @@
     <t>DAVID</t>
   </si>
   <si>
+    <t>JOHAN ALEJANDRO</t>
+  </si>
+  <si>
     <t>IAN LAEL</t>
   </si>
   <si>
+    <t>ZURIEL ARTURO</t>
+  </si>
+  <si>
     <t>DANIEL</t>
   </si>
   <si>
     <t>ALAN URIEL</t>
   </si>
   <si>
+    <t>AMANDA MICHEL</t>
+  </si>
+  <si>
     <t>VICTOR GAEL</t>
   </si>
   <si>
+    <t>JORGE ALEJANDRO</t>
+  </si>
+  <si>
     <t>ALDIR ADALBERTO</t>
   </si>
   <si>
+    <t>YAIR</t>
+  </si>
+  <si>
+    <t>JONATHAN</t>
+  </si>
+  <si>
     <t>OSVALDO</t>
-  </si>
-  <si>
-    <t>AVENDAÑO</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>ESPINOZA</t>
-  </si>
-  <si>
-    <t>MAYAHUA</t>
-  </si>
-  <si>
-    <t>OLMOS</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>SILVESTRE</t>
-  </si>
-  <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
-    <t>OJEDA</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>TEMOXTLE</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>ALAMILLO</t>
-  </si>
-  <si>
-    <t>BELLO</t>
-  </si>
-  <si>
-    <t>VELASCO</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>YAEL</t>
-  </si>
-  <si>
-    <t>AXEL JESUS</t>
-  </si>
-  <si>
-    <t>KARLA JOVANA</t>
-  </si>
-  <si>
-    <t>JORGE HUMBERTO</t>
-  </si>
-  <si>
-    <t>ADRIAN</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE</t>
-  </si>
-  <si>
-    <t>ELIAS</t>
-  </si>
-  <si>
-    <t>JOHAN ALEJANDRO</t>
-  </si>
-  <si>
-    <t>ZURIEL ARTURO</t>
-  </si>
-  <si>
-    <t>AMANDA MICHEL</t>
-  </si>
-  <si>
-    <t>JORGE ALEJANDRO</t>
-  </si>
-  <si>
-    <t>YAIR</t>
-  </si>
-  <si>
-    <t>JONATHAN</t>
   </si>
   <si>
     <t>AYLIN MELISSA</t>
@@ -1031,16 +1031,16 @@
         <v>8</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q4">
         <v>8</v>
       </c>
       <c r="R4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S4">
         <v>9</v>
@@ -1075,7 +1075,7 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -1090,10 +1090,10 @@
         <v>6</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K5">
         <v>6</v>
@@ -1108,16 +1108,16 @@
         <v>6</v>
       </c>
       <c r="O5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q5">
         <v>6</v>
       </c>
       <c r="R5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S5">
         <v>5</v>
@@ -1126,10 +1126,10 @@
         <v>6</v>
       </c>
       <c r="U5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W5">
         <v>6</v>
@@ -1167,7 +1167,7 @@
         <v>6</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>6</v>
@@ -1185,16 +1185,16 @@
         <v>6</v>
       </c>
       <c r="O6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q6">
         <v>7</v>
       </c>
       <c r="R6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S6">
         <v>8</v>
@@ -1212,7 +1212,7 @@
         <v>6</v>
       </c>
       <c r="X6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y6">
         <v>7</v>
@@ -1226,7 +1226,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1244,7 +1244,7 @@
         <v>7</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -1262,16 +1262,16 @@
         <v>7</v>
       </c>
       <c r="O7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q7">
         <v>8</v>
       </c>
       <c r="R7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S7">
         <v>5</v>
@@ -1280,7 +1280,7 @@
         <v>7</v>
       </c>
       <c r="U7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V7">
         <v>6</v>
@@ -1289,7 +1289,7 @@
         <v>8</v>
       </c>
       <c r="X7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y7">
         <v>5</v>
@@ -1339,16 +1339,16 @@
         <v>7</v>
       </c>
       <c r="O8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q8">
         <v>7</v>
       </c>
       <c r="R8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S8">
         <v>5</v>
@@ -1357,7 +1357,7 @@
         <v>7</v>
       </c>
       <c r="U8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V8">
         <v>7</v>
@@ -1366,7 +1366,7 @@
         <v>7</v>
       </c>
       <c r="X8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y8">
         <v>6</v>
@@ -1380,7 +1380,7 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -1398,7 +1398,7 @@
         <v>6</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -1416,16 +1416,16 @@
         <v>6</v>
       </c>
       <c r="O9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q9">
         <v>7</v>
       </c>
       <c r="R9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S9">
         <v>5</v>
@@ -1434,7 +1434,7 @@
         <v>6</v>
       </c>
       <c r="U9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V9">
         <v>6</v>
@@ -1443,7 +1443,7 @@
         <v>6</v>
       </c>
       <c r="X9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y9">
         <v>6</v>
@@ -1493,16 +1493,16 @@
         <v>8</v>
       </c>
       <c r="O10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q10">
         <v>7</v>
       </c>
       <c r="R10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S10">
         <v>8</v>
@@ -1520,7 +1520,7 @@
         <v>7</v>
       </c>
       <c r="X10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y10">
         <v>9</v>
@@ -1534,10 +1534,10 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -1552,10 +1552,10 @@
         <v>6</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K11">
         <v>6</v>
@@ -1570,16 +1570,16 @@
         <v>6</v>
       </c>
       <c r="O11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q11">
         <v>6</v>
       </c>
       <c r="R11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S11">
         <v>5</v>
@@ -1588,10 +1588,10 @@
         <v>6</v>
       </c>
       <c r="U11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W11">
         <v>6</v>
@@ -1647,16 +1647,16 @@
         <v>6</v>
       </c>
       <c r="O12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q12">
         <v>7</v>
       </c>
       <c r="R12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S12">
         <v>8</v>
@@ -1665,7 +1665,7 @@
         <v>6</v>
       </c>
       <c r="U12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V12">
         <v>7</v>
@@ -1674,7 +1674,7 @@
         <v>7</v>
       </c>
       <c r="X12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y12">
         <v>6</v>
@@ -1691,7 +1691,7 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -1706,10 +1706,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K13">
         <v>6</v>
@@ -1724,16 +1724,16 @@
         <v>6</v>
       </c>
       <c r="O13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Q13">
         <v>-1</v>
       </c>
       <c r="R13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S13">
         <v>5</v>
@@ -1742,16 +1742,16 @@
         <v>6</v>
       </c>
       <c r="U13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W13">
         <v>6</v>
       </c>
       <c r="X13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y13">
         <v>5</v>
@@ -1801,16 +1801,16 @@
         <v>6</v>
       </c>
       <c r="O14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q14">
         <v>6</v>
       </c>
       <c r="R14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S14">
         <v>8</v>
@@ -1819,7 +1819,7 @@
         <v>6</v>
       </c>
       <c r="U14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V14">
         <v>6</v>
@@ -1842,7 +1842,7 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -1860,7 +1860,7 @@
         <v>6</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -1878,16 +1878,16 @@
         <v>6</v>
       </c>
       <c r="O15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q15">
         <v>6</v>
       </c>
       <c r="R15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S15">
         <v>6</v>
@@ -1896,7 +1896,7 @@
         <v>6</v>
       </c>
       <c r="U15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V15">
         <v>6</v>
@@ -1905,7 +1905,7 @@
         <v>6</v>
       </c>
       <c r="X15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y15">
         <v>6</v>
@@ -1919,7 +1919,7 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -1937,7 +1937,7 @@
         <v>6</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J16">
         <v>6</v>
@@ -1955,16 +1955,16 @@
         <v>6</v>
       </c>
       <c r="O16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q16">
         <v>7</v>
       </c>
       <c r="R16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S16">
         <v>8</v>
@@ -1973,7 +1973,7 @@
         <v>6</v>
       </c>
       <c r="U16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V16">
         <v>6</v>
@@ -1982,7 +1982,7 @@
         <v>6</v>
       </c>
       <c r="X16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y16">
         <v>6</v>
@@ -1996,10 +1996,10 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>6</v>
@@ -2014,10 +2014,10 @@
         <v>6</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K17">
         <v>6</v>
@@ -2032,16 +2032,16 @@
         <v>6</v>
       </c>
       <c r="O17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q17">
         <v>-1</v>
       </c>
       <c r="R17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S17">
         <v>5</v>
@@ -2050,10 +2050,10 @@
         <v>6</v>
       </c>
       <c r="U17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W17">
         <v>6</v>
@@ -2073,7 +2073,7 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>6</v>
@@ -2091,7 +2091,7 @@
         <v>6</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>6</v>
@@ -2109,16 +2109,16 @@
         <v>6</v>
       </c>
       <c r="O18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q18">
         <v>6</v>
       </c>
       <c r="R18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S18">
         <v>5</v>
@@ -2127,7 +2127,7 @@
         <v>6</v>
       </c>
       <c r="U18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V18">
         <v>6</v>
@@ -2150,10 +2150,10 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -2168,10 +2168,10 @@
         <v>6</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K19">
         <v>6</v>
@@ -2186,16 +2186,16 @@
         <v>6</v>
       </c>
       <c r="O19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q19">
         <v>-1</v>
       </c>
       <c r="R19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S19">
         <v>5</v>
@@ -2204,10 +2204,10 @@
         <v>6</v>
       </c>
       <c r="U19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W19">
         <v>6</v>
@@ -2245,7 +2245,7 @@
         <v>6</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -2263,16 +2263,16 @@
         <v>6</v>
       </c>
       <c r="O20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q20">
         <v>6</v>
       </c>
       <c r="R20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S20">
         <v>8</v>
@@ -2281,7 +2281,7 @@
         <v>6</v>
       </c>
       <c r="U20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V20">
         <v>6</v>
@@ -2290,7 +2290,7 @@
         <v>6</v>
       </c>
       <c r="X20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y20">
         <v>6</v>
@@ -2340,16 +2340,16 @@
         <v>8</v>
       </c>
       <c r="O21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q21">
         <v>10</v>
       </c>
       <c r="R21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S21">
         <v>9</v>
@@ -2399,7 +2399,7 @@
         <v>6</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J22">
         <v>6</v>
@@ -2417,16 +2417,16 @@
         <v>6</v>
       </c>
       <c r="O22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q22">
         <v>7</v>
       </c>
       <c r="R22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S22">
         <v>5</v>
@@ -2444,7 +2444,7 @@
         <v>6</v>
       </c>
       <c r="X22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y22">
         <v>6</v>
@@ -2476,7 +2476,7 @@
         <v>6</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J23">
         <v>8</v>
@@ -2494,16 +2494,16 @@
         <v>6</v>
       </c>
       <c r="O23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q23">
         <v>7</v>
       </c>
       <c r="R23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S23">
         <v>5</v>
@@ -2571,16 +2571,16 @@
         <v>6</v>
       </c>
       <c r="O24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q24">
         <v>6</v>
       </c>
       <c r="R24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S24">
         <v>8</v>
@@ -2598,7 +2598,7 @@
         <v>6</v>
       </c>
       <c r="X24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y24">
         <v>7</v>
@@ -2648,16 +2648,16 @@
         <v>7</v>
       </c>
       <c r="O25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q25">
         <v>7</v>
       </c>
       <c r="R25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S25">
         <v>5</v>
@@ -2707,7 +2707,7 @@
         <v>6</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J26">
         <v>6</v>
@@ -2725,16 +2725,16 @@
         <v>6</v>
       </c>
       <c r="O26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q26">
         <v>6</v>
       </c>
       <c r="R26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S26">
         <v>5</v>
@@ -2752,7 +2752,7 @@
         <v>6</v>
       </c>
       <c r="X26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y26">
         <v>6</v>
@@ -2802,16 +2802,16 @@
         <v>7</v>
       </c>
       <c r="O27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q27">
         <v>7</v>
       </c>
       <c r="R27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S27">
         <v>8</v>
@@ -2820,7 +2820,7 @@
         <v>7</v>
       </c>
       <c r="U27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V27">
         <v>9</v>
@@ -2829,7 +2829,7 @@
         <v>7</v>
       </c>
       <c r="X27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y27">
         <v>8</v>
@@ -2843,7 +2843,7 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>6</v>
@@ -2861,7 +2861,7 @@
         <v>6</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J28">
         <v>6</v>
@@ -2879,16 +2879,16 @@
         <v>6</v>
       </c>
       <c r="O28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q28">
         <v>6</v>
       </c>
       <c r="R28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S28">
         <v>5</v>
@@ -2897,7 +2897,7 @@
         <v>6</v>
       </c>
       <c r="U28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V28">
         <v>6</v>
@@ -2956,16 +2956,16 @@
         <v>7</v>
       </c>
       <c r="O29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q29">
         <v>9</v>
       </c>
       <c r="R29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S29">
         <v>8</v>
@@ -2983,7 +2983,7 @@
         <v>9</v>
       </c>
       <c r="X29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y29">
         <v>8</v>
@@ -3015,7 +3015,7 @@
         <v>6</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J30">
         <v>6</v>
@@ -3033,16 +3033,16 @@
         <v>6</v>
       </c>
       <c r="O30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q30">
         <v>6</v>
       </c>
       <c r="R30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S30">
         <v>8</v>
@@ -3077,7 +3077,7 @@
         <v>7</v>
       </c>
       <c r="D31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>7</v>
@@ -3095,7 +3095,7 @@
         <v>6</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K31">
         <v>8</v>
@@ -3110,16 +3110,16 @@
         <v>7</v>
       </c>
       <c r="O31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q31">
         <v>7</v>
       </c>
       <c r="R31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S31">
         <v>5</v>
@@ -3128,10 +3128,10 @@
         <v>7</v>
       </c>
       <c r="U31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W31">
         <v>7</v>
@@ -3187,16 +3187,16 @@
         <v>8</v>
       </c>
       <c r="O32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q32">
         <v>9</v>
       </c>
       <c r="R32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S32">
         <v>10</v>
@@ -3205,7 +3205,7 @@
         <v>8</v>
       </c>
       <c r="U32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V32">
         <v>7</v>
@@ -3264,16 +3264,16 @@
         <v>8</v>
       </c>
       <c r="O33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q33">
         <v>7</v>
       </c>
       <c r="R33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S33">
         <v>5</v>
@@ -3305,7 +3305,7 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>6</v>
@@ -3323,7 +3323,7 @@
         <v>6</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J34">
         <v>6</v>
@@ -3341,16 +3341,16 @@
         <v>6</v>
       </c>
       <c r="O34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q34">
         <v>6</v>
       </c>
       <c r="R34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S34">
         <v>6</v>
@@ -3359,7 +3359,7 @@
         <v>6</v>
       </c>
       <c r="U34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V34">
         <v>6</v>
@@ -3368,7 +3368,7 @@
         <v>6</v>
       </c>
       <c r="X34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y34">
         <v>6</v>
@@ -3400,7 +3400,7 @@
         <v>6</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J35">
         <v>7</v>
@@ -3418,16 +3418,16 @@
         <v>6</v>
       </c>
       <c r="O35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q35">
         <v>6</v>
       </c>
       <c r="R35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S35">
         <v>6</v>
@@ -3445,7 +3445,7 @@
         <v>6</v>
       </c>
       <c r="X35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y35">
         <v>6</v>
@@ -3495,16 +3495,16 @@
         <v>8</v>
       </c>
       <c r="O36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q36">
         <v>9</v>
       </c>
       <c r="R36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S36">
         <v>8</v>
@@ -3513,7 +3513,7 @@
         <v>8</v>
       </c>
       <c r="U36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V36">
         <v>8</v>
@@ -3572,16 +3572,16 @@
         <v>8</v>
       </c>
       <c r="O37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q37">
         <v>6</v>
       </c>
       <c r="R37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S37">
         <v>5</v>
@@ -3599,7 +3599,7 @@
         <v>6</v>
       </c>
       <c r="X37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y37">
         <v>6</v>
@@ -3613,7 +3613,7 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -3631,7 +3631,7 @@
         <v>6</v>
       </c>
       <c r="I38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J38">
         <v>6</v>
@@ -3649,16 +3649,16 @@
         <v>6</v>
       </c>
       <c r="O38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q38">
         <v>6</v>
       </c>
       <c r="R38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S38">
         <v>5</v>
@@ -3667,7 +3667,7 @@
         <v>6</v>
       </c>
       <c r="U38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="V38">
         <v>6</v>
@@ -3726,16 +3726,16 @@
         <v>6</v>
       </c>
       <c r="O39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q39">
         <v>7</v>
       </c>
       <c r="R39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S39">
         <v>5</v>
@@ -3753,7 +3753,7 @@
         <v>7</v>
       </c>
       <c r="X39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y39">
         <v>6</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -3824,30 +3824,30 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>36.11</v>
+        <v>38.89</v>
       </c>
       <c r="G2">
-        <v>33.33</v>
+        <v>61.11</v>
       </c>
       <c r="H2">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>55.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -3856,16 +3856,16 @@
         <v>36</v>
       </c>
       <c r="D3">
+        <v>22</v>
+      </c>
+      <c r="E3">
         <v>14</v>
       </c>
-      <c r="E3">
-        <v>22</v>
-      </c>
       <c r="F3">
+        <v>61.11</v>
+      </c>
+      <c r="G3">
         <v>38.89</v>
-      </c>
-      <c r="G3">
-        <v>61.11</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -3920,25 +3920,25 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>83.33</v>
+        <v>97.22</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="H5">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>16.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4012,7 +4012,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4040,526 +4040,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>20330051920071</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>20330051920071</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>20330051920072</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>20330051920073</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>20330051920074</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>20330051920076</v>
-      </c>
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>20330051920076</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>20330051920078</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>20330051920078</v>
-      </c>
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>20330051920081</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>20330051920082</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>20330051920083</v>
-      </c>
-      <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>20330051920083</v>
-      </c>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>20330051920084</v>
-      </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>20330051920085</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>20330051920085</v>
-      </c>
-      <c r="B17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>20330051920087</v>
-      </c>
-      <c r="B18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>20330051920089</v>
-      </c>
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>20330051920090</v>
-      </c>
-      <c r="B20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>20330051920092</v>
-      </c>
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>20330051920094</v>
-      </c>
-      <c r="B22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>20330051920059</v>
-      </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>20330051920061</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>20330051920063</v>
-      </c>
-      <c r="B25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>20330051920065</v>
-      </c>
-      <c r="B26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>20330051920070</v>
-      </c>
-      <c r="B27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4598,373 +4078,373 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920071</v>
+        <v>20330051920041</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920076</v>
+        <v>20330051920071</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920078</v>
+        <v>20330051920072</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920083</v>
+        <v>20330051920073</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920085</v>
+        <v>20330051920359</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920072</v>
+        <v>20330051920074</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920073</v>
+        <v>20330051920075</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920074</v>
+        <v>20330051920076</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920081</v>
+        <v>20330051920077</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920082</v>
+        <v>20330051920078</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920084</v>
+        <v>20330051920080</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920087</v>
+        <v>20330051920081</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920089</v>
+        <v>20330051920082</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920090</v>
+        <v>20330051920083</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920092</v>
+        <v>20330051920084</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920094</v>
+        <v>20330051920085</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920059</v>
+        <v>20330051920087</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920061</v>
+        <v>20330051920088</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920063</v>
+        <v>20330051920089</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920065</v>
+        <v>20330051920090</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920070</v>
+        <v>20330051920091</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920041</v>
+        <v>20330051920092</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
         <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4972,16 +4452,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920359</v>
+        <v>20330051920093</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4989,16 +4469,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920075</v>
+        <v>20330051920094</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5006,16 +4486,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920077</v>
+        <v>20330051920058</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5023,16 +4503,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920080</v>
+        <v>20330051920059</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5040,16 +4520,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920088</v>
+        <v>20330051920061</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5057,16 +4537,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920091</v>
+        <v>20330051920062</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -5074,13 +4554,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920093</v>
+        <v>20330051920063</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
         <v>154</v>
@@ -5091,13 +4571,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920058</v>
+        <v>20330051920064</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
         <v>155</v>
@@ -5108,13 +4588,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920062</v>
+        <v>20330051920065</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
         <v>156</v>
@@ -5125,13 +4605,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920064</v>
+        <v>20330051920066</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
         <v>157</v>
@@ -5142,13 +4622,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20330051920066</v>
+        <v>20330051920068</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
         <v>158</v>
@@ -5159,13 +4639,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20330051920068</v>
+        <v>20330051920070</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s">
         <v>159</v>
@@ -5179,10 +4659,10 @@
         <v>20330051920069</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
         <v>160</v>
@@ -5196,10 +4676,10 @@
         <v>20330051920386</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="D37" t="s">
         <v>161</v>
@@ -5215,7 +4695,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5250,45 +4730,45 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920073</v>
+        <v>20330051920072</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920073</v>
+        <v>20330051920072</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -5296,45 +4776,45 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920074</v>
+        <v>20330051920073</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920074</v>
+        <v>20330051920073</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -5345,19 +4825,19 @@
         <v>20330051920080</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -5368,19 +4848,19 @@
         <v>20330051920080</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -5388,45 +4868,45 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920081</v>
+        <v>20330051920082</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920081</v>
+        <v>20330051920082</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -5437,22 +4917,22 @@
         <v>20330051920084</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5460,19 +4940,19 @@
         <v>20330051920084</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -5480,91 +4960,91 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920087</v>
+        <v>20330051920089</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20330051920087</v>
+        <v>20330051920089</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>20330051920089</v>
+        <v>20330051920092</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>20330051920089</v>
+        <v>20330051920092</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -5572,45 +5052,45 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>20330051920090</v>
+        <v>20330051920059</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>20330051920090</v>
+        <v>20330051920059</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -5618,45 +5098,45 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>20330051920092</v>
+        <v>20330051920070</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>20330051920092</v>
+        <v>20330051920070</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -5664,45 +5144,45 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>20330051920059</v>
+        <v>20330051920071</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
         <v>57</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>20330051920059</v>
+        <v>20330051920074</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -5710,137 +5190,137 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>20330051920063</v>
+        <v>20330051920081</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
         <v>57</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>20330051920063</v>
+        <v>20330051920087</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>20330051920065</v>
+        <v>20330051920090</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>20330051920065</v>
+        <v>20330051920093</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>20330051920070</v>
+        <v>20330051920063</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
         <v>57</v>
       </c>
       <c r="G26">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>20330051920070</v>
+        <v>20330051920065</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -5848,116 +5328,70 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>20330051920093</v>
+        <v>20330051920068</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
         <v>57</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>20330051920061</v>
+        <v>20330051920069</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G29">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>20330051920068</v>
+        <v>20330051920386</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>20330051920069</v>
-      </c>
-      <c r="B31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" t="s">
-        <v>160</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>20330051920386</v>
-      </c>
-      <c r="B32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" t="s">
-        <v>147</v>
-      </c>
-      <c r="D32" t="s">
-        <v>161</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32">
         <v>6</v>
       </c>
     </row>

--- a/grupos/2AEV - Estadisticos 20202.xlsx
+++ b/grupos/2AEV - Estadisticos 20202.xlsx
@@ -1730,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R13">
         <v>5</v>
@@ -1748,7 +1748,7 @@
         <v>5</v>
       </c>
       <c r="W13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X13">
         <v>6</v>
@@ -2038,7 +2038,7 @@
         <v>6</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>5</v>
@@ -2056,7 +2056,7 @@
         <v>6</v>
       </c>
       <c r="W17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X17">
         <v>5</v>
@@ -2192,7 +2192,7 @@
         <v>6</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R19">
         <v>5</v>
@@ -2210,7 +2210,7 @@
         <v>6</v>
       </c>
       <c r="W19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X19">
         <v>5</v>

--- a/grupos/2AEV - Estadisticos 20202.xlsx
+++ b/grupos/2AEV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="162">
   <si>
     <t>Materia</t>
   </si>
@@ -191,19 +191,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>González Altamirano Victorino Juventino</t>
+  </si>
+  <si>
     <t>Contreras Díaz Irma Ivette</t>
   </si>
   <si>
-    <t>González Altamirano Victorino Juventino</t>
-  </si>
-  <si>
     <t>Zarate Amezcua Eladio Jorge</t>
   </si>
   <si>
+    <t>Medina Tolentino Francisco</t>
+  </si>
+  <si>
     <t>Villanueva Morales Luis Arturo</t>
-  </si>
-  <si>
-    <t>Medina Tolentino Francisco</t>
   </si>
   <si>
     <t>Silva Villegas Mario</t>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -3824,16 +3824,16 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>38.89</v>
+        <v>69.44</v>
       </c>
       <c r="G2">
-        <v>61.11</v>
+        <v>30.56</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -3856,19 +3856,19 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>61.11</v>
+        <v>75</v>
       </c>
       <c r="G3">
-        <v>38.89</v>
+        <v>25</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3888,19 +3888,19 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>72.22</v>
+        <v>80.56</v>
       </c>
       <c r="G4">
-        <v>27.78</v>
+        <v>19.44</v>
       </c>
       <c r="H4">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -3920,19 +3920,19 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>97.22</v>
+        <v>91.67</v>
       </c>
       <c r="G5">
-        <v>2.78</v>
+        <v>8.33</v>
       </c>
       <c r="H5">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
@@ -3952,19 +3952,19 @@
         <v>36</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>97.22</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="H6">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4695,7 +4695,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4725,24 +4725,24 @@
         <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920072</v>
+        <v>20330051920084</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -4753,22 +4753,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920072</v>
+        <v>20330051920084</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -4776,22 +4776,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920073</v>
+        <v>20330051920059</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -4799,22 +4799,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920073</v>
+        <v>20330051920059</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -4822,45 +4822,45 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920080</v>
+        <v>20330051920070</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920080</v>
+        <v>20330051920070</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -4868,22 +4868,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920082</v>
+        <v>20330051920071</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -4891,16 +4891,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920082</v>
+        <v>20330051920072</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -4914,22 +4914,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920084</v>
+        <v>20330051920073</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -4937,22 +4937,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920084</v>
+        <v>20330051920080</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -4975,7 +4975,7 @@
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -4983,22 +4983,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20330051920089</v>
+        <v>20330051920090</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -5021,378 +5021,10 @@
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14">
         <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920092</v>
-      </c>
-      <c r="B15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20330051920059</v>
-      </c>
-      <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>20330051920059</v>
-      </c>
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>20330051920070</v>
-      </c>
-      <c r="B18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>20330051920070</v>
-      </c>
-      <c r="B19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>20330051920071</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>20330051920074</v>
-      </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>20330051920081</v>
-      </c>
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>20330051920087</v>
-      </c>
-      <c r="B23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>20330051920090</v>
-      </c>
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>20330051920093</v>
-      </c>
-      <c r="B25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>20330051920063</v>
-      </c>
-      <c r="B26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" t="s">
-        <v>154</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>20330051920065</v>
-      </c>
-      <c r="B27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" t="s">
-        <v>156</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>20330051920068</v>
-      </c>
-      <c r="B28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" t="s">
-        <v>158</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>20330051920069</v>
-      </c>
-      <c r="B29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" t="s">
-        <v>160</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>20330051920386</v>
-      </c>
-      <c r="B30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
